--- a/Desislava Laskova/Занятие 8. Bugs/Bug03 - Fake categories.xlsx
+++ b/Desislava Laskova/Занятие 8. Bugs/Bug03 - Fake categories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\gittest\Desislava Laskova\Занятие 8. Bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC124B64-A401-4472-BCF1-E3BF2BC81807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69396478-0D94-4D1B-BFBC-DF9A27704898}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{DC13A901-E5F9-40D8-AEE2-209E8564C5CA}"/>
   </bookViews>
@@ -172,57 +172,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-The category is loaded with actual information in it.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Actual result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The user is redirected to another web page
-3. Click back button in your web browser
-4.  Click on the category "Top trends"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expected result:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The category is loaded with actual information in it.
+The category is loaded with actual information in it or some kind of under construction page.
 </t>
     </r>
     <r>
@@ -1086,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
